--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/88.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/88.xlsx
@@ -479,13 +479,13 @@
         <v>-0.02971368513383773</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.921963804019651</v>
+        <v>-1.923928966892595</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0449123887377934</v>
+        <v>0.03958590803131187</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0112582859052634</v>
+        <v>0.006405584954293375</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.02203903252974788</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.786665842410008</v>
+        <v>-1.792802942963959</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.004985591426559703</v>
+        <v>-0.01074020533403502</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01328877057174128</v>
+        <v>0.008488012251774184</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.0180477793940296</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.757407974983271</v>
+        <v>-1.765859670655095</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04887554060490808</v>
+        <v>-0.05322612945618319</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009372610997945171</v>
+        <v>0.004540372295552059</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.01937719304698508</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.781846982870146</v>
+        <v>-1.791638955823757</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08459790456282719</v>
+        <v>-0.08818824217851406</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03305215465879272</v>
+        <v>0.0272865226174683</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.02152999840775048</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.748140150397052</v>
+        <v>-1.756770497239144</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1437243588353662</v>
+        <v>-0.1456541062780809</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0389468562680638</v>
+        <v>0.03171738644392973</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.01724469917824428</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.606014093839207</v>
+        <v>-1.616129527722246</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.19915344219197</v>
+        <v>-0.197222120730134</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03464821004779162</v>
+        <v>0.02861184671760348</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.0007919518462995946</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.465639920563369</v>
+        <v>-1.474466232786062</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2939928163077003</v>
+        <v>-0.2880808004880949</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06180003989022848</v>
+        <v>0.05490898417717407</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.03805201522869594</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.245248124227528</v>
+        <v>-1.253396034208941</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3790638277566385</v>
+        <v>-0.3676175607065399</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08648380775046587</v>
+        <v>0.07903397524934971</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.09694971709347788</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9473941248751172</v>
+        <v>-0.9502887460391892</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4223446315350436</v>
+        <v>-0.4072671023721043</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1279182870995852</v>
+        <v>0.119552375469872</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1759693975051454</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7459362045494029</v>
+        <v>-0.7442945026058863</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5254334398655108</v>
+        <v>-0.5055960768797583</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1271847941890591</v>
+        <v>0.1187401816032809</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2737082747170946</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5204800016907776</v>
+        <v>-0.5138140307120691</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.648372203334701</v>
+        <v>-0.6244880371880844</v>
       </c>
       <c r="G12" t="n">
-        <v>0.140046104429207</v>
+        <v>0.1316581565317956</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3912674006981439</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2733920540481169</v>
+        <v>-0.2635292502340468</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.783711089441498</v>
+        <v>-0.759944974728979</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2037198999431837</v>
+        <v>0.1954625956328403</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5320725808719907</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0482333408034174</v>
+        <v>-0.03569785252137872</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8988230428300207</v>
+        <v>-0.8740346026982168</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2676990551666927</v>
+        <v>0.2590088955979917</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6988979367223059</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3013736202477997</v>
+        <v>0.3143356677117108</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.038644735394282</v>
+        <v>-1.015335873236501</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3028406060688519</v>
+        <v>0.2957811303098183</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8873671868719791</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5673985919388289</v>
+        <v>0.5812058876708786</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.183905451032198</v>
+        <v>-1.164474184979741</v>
       </c>
       <c r="G16" t="n">
-        <v>0.327250494601983</v>
+        <v>0.32273305972385</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.079825057230267</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8181288198281794</v>
+        <v>0.8321974027343649</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.316765257022946</v>
+        <v>-1.30028763785161</v>
       </c>
       <c r="G17" t="n">
-        <v>0.357109637333057</v>
+        <v>0.3543377896604465</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.255909660168951</v>
       </c>
       <c r="E18" t="n">
-        <v>1.057861376117002</v>
+        <v>1.073271023314536</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.515593778406528</v>
+        <v>-1.500435187258842</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4069320645795877</v>
+        <v>0.4051156465136067</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.412378699064585</v>
       </c>
       <c r="E19" t="n">
-        <v>1.328696550242726</v>
+        <v>1.34131073948083</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.719918774561692</v>
+        <v>-1.706122496963491</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4424372138987673</v>
+        <v>0.4413180863035225</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.556331566255824</v>
       </c>
       <c r="E20" t="n">
-        <v>1.623148307264446</v>
+        <v>1.634937710482988</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.921687563663863</v>
+        <v>-1.910560822495388</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5077479892988968</v>
+        <v>0.5063754446251225</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.685177440930083</v>
       </c>
       <c r="E21" t="n">
-        <v>1.824204065704668</v>
+        <v>1.83230239408376</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.149556737835442</v>
+        <v>-2.139711248231706</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5818937340268869</v>
+        <v>0.5802976786378881</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.783860393380577</v>
       </c>
       <c r="E22" t="n">
-        <v>1.958502525172285</v>
+        <v>1.965099239309656</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.318318345963938</v>
+        <v>-2.309503838884654</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6439809182665925</v>
+        <v>0.6423880109158363</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.841623829142548</v>
       </c>
       <c r="E23" t="n">
-        <v>2.156303212069657</v>
+        <v>2.158788588262191</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.47038748131104</v>
+        <v>-2.462078234369694</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7014090059072482</v>
+        <v>0.699743693676912</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.861347096725726</v>
       </c>
       <c r="E24" t="n">
-        <v>2.262793475721256</v>
+        <v>2.261055758611339</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.711209258831802</v>
+        <v>-2.701577048819003</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7485996731829641</v>
+        <v>0.7477497028574617</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.852121261074967</v>
       </c>
       <c r="E25" t="n">
-        <v>2.407486757465942</v>
+        <v>2.400833378640205</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.871245291961368</v>
+        <v>-2.861272306808807</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7910210625211389</v>
+        <v>0.7881012570511261</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.821668386951104</v>
       </c>
       <c r="E26" t="n">
-        <v>2.556395262417473</v>
+        <v>2.546201914587929</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.042427741498424</v>
+        <v>-3.032008521924975</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8214547222314877</v>
+        <v>0.8192290591939686</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.773062863258974</v>
       </c>
       <c r="E27" t="n">
-        <v>2.608356781649851</v>
+        <v>2.595514359639159</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.163143202958778</v>
+        <v>-3.148618941516975</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8630938240663761</v>
+        <v>0.8604337317513779</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.708366519407978</v>
       </c>
       <c r="E28" t="n">
-        <v>2.623171449619533</v>
+        <v>2.610148015409891</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.250753894259935</v>
+        <v>-3.233899297509046</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8886574686154206</v>
+        <v>0.8842218827315953</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.63065191418501</v>
       </c>
       <c r="E29" t="n">
-        <v>2.631691615123134</v>
+        <v>2.617142956384952</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.342572725681888</v>
+        <v>-3.320970100251597</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8889817165544085</v>
+        <v>0.8838913387161221</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.545890963678631</v>
       </c>
       <c r="E30" t="n">
-        <v>2.629185776682023</v>
+        <v>2.612830143992587</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.377918112060256</v>
+        <v>-3.35201290536189</v>
       </c>
       <c r="G30" t="n">
-        <v>0.899066457064582</v>
+        <v>0.8948465118003749</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.458506443224815</v>
       </c>
       <c r="E31" t="n">
-        <v>2.619206495452977</v>
+        <v>2.602679294679319</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.45701729496298</v>
+        <v>-3.426678076399909</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8636384346823461</v>
+        <v>0.8587369391386158</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.372435144764554</v>
       </c>
       <c r="E32" t="n">
-        <v>2.582638883226919</v>
+        <v>2.566354081397942</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.501078025215989</v>
+        <v>-3.465395011736103</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8602385533803367</v>
+        <v>0.8547971692780002</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.289786926819858</v>
       </c>
       <c r="E33" t="n">
-        <v>2.514952912972747</v>
+        <v>2.499162353147858</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.539688714261495</v>
+        <v>-3.500064356901872</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8730778273527864</v>
+        <v>0.8653604116010492</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.209265811119776</v>
       </c>
       <c r="E34" t="n">
-        <v>2.457205299450467</v>
+        <v>2.441534365078798</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.559449737319865</v>
+        <v>-3.519398033768808</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8680393921455029</v>
+        <v>0.859292567888435</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.127951341876399</v>
       </c>
       <c r="E35" t="n">
-        <v>2.397861630539189</v>
+        <v>2.383608887395811</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.530823051560769</v>
+        <v>-3.488928171618669</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8202128211447814</v>
+        <v>0.8106443589063946</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.045978323595814</v>
       </c>
       <c r="E36" t="n">
-        <v>2.312655253445818</v>
+        <v>2.297596612512335</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.512126852437959</v>
+        <v>-3.469866800059718</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8120058854463197</v>
+        <v>0.8017180964694984</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9653074110729392</v>
       </c>
       <c r="E37" t="n">
-        <v>2.163167509457649</v>
+        <v>2.150276292854197</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.45761070017171</v>
+        <v>-3.415360091908196</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7664946965730316</v>
+        <v>0.7565626359176243</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8854822236932898</v>
       </c>
       <c r="E38" t="n">
-        <v>2.078948042353335</v>
+        <v>2.06544925436906</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.415749661640718</v>
+        <v>-3.373780015790357</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7582027638420196</v>
+        <v>0.7494905680056203</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8070858586966446</v>
       </c>
       <c r="E39" t="n">
-        <v>1.995416421605029</v>
+        <v>1.983024169063029</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.306452134886281</v>
+        <v>-3.265497731369158</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7042217780770125</v>
+        <v>0.6959172531930301</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7316705984870525</v>
       </c>
       <c r="E40" t="n">
-        <v>1.870946137530813</v>
+        <v>1.858349262503044</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.224688924620756</v>
+        <v>-3.184957533960884</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6707077629462782</v>
+        <v>0.6624599027506627</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6584475498400966</v>
       </c>
       <c r="E41" t="n">
-        <v>1.762478905862861</v>
+        <v>1.752183246790433</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.167206533320415</v>
+        <v>-3.12770180141401</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6249179726885199</v>
+        <v>0.6177734998969361</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5852448887437615</v>
       </c>
       <c r="E42" t="n">
-        <v>1.628896625095436</v>
+        <v>1.621457810728169</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.106645360618811</v>
+        <v>-3.068358919512292</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5785804237765489</v>
+        <v>0.5720435223657873</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5104940476959027</v>
       </c>
       <c r="E43" t="n">
-        <v>1.507065971087641</v>
+        <v>1.50088007594093</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.003030042892268</v>
+        <v>-2.966918896211388</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5244499061950183</v>
+        <v>0.5184733555914396</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4332056953987228</v>
       </c>
       <c r="E44" t="n">
-        <v>1.316850482335817</v>
+        <v>1.313080706540302</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.949429182745055</v>
+        <v>-2.914491467319105</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4790835270808899</v>
+        <v>0.4739144482865384</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3554266218504488</v>
       </c>
       <c r="E45" t="n">
-        <v>1.135898096112848</v>
+        <v>1.13369919140039</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.836603492130222</v>
+        <v>-2.803390901661217</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4332244799817944</v>
+        <v>0.4289919425646168</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2818870532289535</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9642277006481879</v>
+        <v>0.9659213452227075</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.678974921246686</v>
+        <v>-2.648552279670186</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3765534955384844</v>
+        <v>0.3722123508019371</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2165705807939383</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8901433426659284</v>
+        <v>0.8929828731607549</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.634737900852091</v>
+        <v>-2.604546640086422</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3409633491867546</v>
+        <v>0.3370204312878963</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1617158860538867</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7464275267955691</v>
+        <v>0.7519790922363967</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.558649029518855</v>
+        <v>-2.52970911395462</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3492804662237074</v>
+        <v>0.3458853069790618</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1178980947000625</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6118142635036917</v>
+        <v>0.6197929664295649</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.501199692620061</v>
+        <v>-2.472334542964089</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3055353268045187</v>
+        <v>0.3025446904740474</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.08434415403028109</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4803317242440814</v>
+        <v>0.4906195132209026</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.441785979857885</v>
+        <v>-2.41331748302048</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2598635879808579</v>
+        <v>0.2581951277122792</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.05806291292301331</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3674414988452747</v>
+        <v>0.378933412449891</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.413537845697463</v>
+        <v>-2.385250361059007</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2431034323772482</v>
+        <v>0.2414192319174565</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.03623392792221573</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2116293460277197</v>
+        <v>0.2244544538280777</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.417240725680322</v>
+        <v>-2.388478674276795</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2282320997191993</v>
+        <v>0.2264723463415851</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.01677345243029531</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1554557516267407</v>
+        <v>0.1710967796351056</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.329610359140149</v>
+        <v>-2.302975594579059</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1913969042425206</v>
+        <v>0.1898764017713442</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.001602032448482184</v>
       </c>
       <c r="E54" t="n">
-        <v>0.05270063534998921</v>
+        <v>0.06861554268546045</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.287874455129301</v>
+        <v>-2.262086512855471</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1684272432053797</v>
+        <v>0.1669854416902682</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.01996824033683227</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.03504935664340284</v>
+        <v>-0.01839308630179896</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.247577204595321</v>
+        <v>-2.223352263308943</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1516529214296782</v>
+        <v>0.150536941872676</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.03999147248443038</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.07449742386144068</v>
+        <v>-0.05710766060931068</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.222284291335141</v>
+        <v>-2.199535779984542</v>
       </c>
       <c r="G56" t="n">
-        <v>0.123106510645769</v>
+        <v>0.1220471957771336</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.06247766443903691</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1448812628895222</v>
+        <v>-0.1264400548643634</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.197278636564597</v>
+        <v>-2.175762582185977</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1219984011843733</v>
+        <v>0.1202638321126999</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.08676717815807231</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2219263508389483</v>
+        <v>-0.2035433815212776</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.180720742418075</v>
+        <v>-2.160010585829561</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1081611990890189</v>
+        <v>0.1063274668127036</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1120232326200077</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2965978179534529</v>
+        <v>-0.2790160243685242</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.174973211596645</v>
+        <v>-2.154920207991274</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08770682060771651</v>
+        <v>0.085866792254916</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1378517462853821</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3373066744876526</v>
+        <v>-0.3193298021032774</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.186081064535664</v>
+        <v>-2.165550346126978</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06091858918230009</v>
+        <v>0.05968613221032166</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1626866890661295</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3642507338060778</v>
+        <v>-0.346914487204072</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.135251265051501</v>
+        <v>-2.117404249244633</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02310435381217237</v>
+        <v>0.02279742008351874</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1846742774308454</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4060173311897916</v>
+        <v>-0.387964905887594</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.117678128571739</v>
+        <v>-2.101000608971998</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05848672963989053</v>
+        <v>0.05779101318827563</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2042218954665829</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.416619923990873</v>
+        <v>-0.3989484113160301</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.143292928742226</v>
+        <v>-2.127718796546517</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02736207553529073</v>
+        <v>0.02712125060973173</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2223554109631906</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.4040576773837722</v>
+        <v>-0.3851411155839805</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.114045292439777</v>
+        <v>-2.100919546987251</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01022887739993275</v>
+        <v>0.01032489256633209</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.239317178600108</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4578545029115871</v>
+        <v>-0.439663563926715</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.124090682471918</v>
+        <v>-2.111012157593031</v>
       </c>
       <c r="G65" t="n">
-        <v>0.00994397993897732</v>
+        <v>0.009808614294545461</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2554432342347679</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4773503037480174</v>
+        <v>-0.4590617755776247</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.112760892836796</v>
+        <v>-2.100472525556802</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.02291996529465974</v>
+        <v>-0.02342994748996116</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2707034024204106</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.4995880458937536</v>
+        <v>-0.4826925246457119</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.144315254161511</v>
+        <v>-2.131345336601993</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.02288533687399113</v>
+        <v>-0.02357790528736343</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2854792469130081</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.4454858606564063</v>
+        <v>-0.4279686018554509</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.176633014760057</v>
+        <v>-2.164177014443644</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.04483188548228662</v>
+        <v>-0.04535131179231584</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3006797842445096</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.4092613845987922</v>
+        <v>-0.3929104739667207</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.202254898016589</v>
+        <v>-2.189426642177989</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07419363817102964</v>
+        <v>-0.07451788611001758</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3161837435770996</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3307886613063465</v>
+        <v>-0.3153742920514488</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.211406245187831</v>
+        <v>-2.198515815593939</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.08227622635890867</v>
+        <v>-0.08260991841262443</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3310835573159966</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.2769068387459813</v>
+        <v>-0.2613618259040157</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.23693919636401</v>
+        <v>-2.223922058230854</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.08745632328710924</v>
+        <v>-0.08720605424682243</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3454668685298816</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2167950485035081</v>
+        <v>-0.2007888480590014</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.289322552720897</v>
+        <v>-2.275785201268151</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.07212222900739794</v>
+        <v>-0.07113059696097851</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3590532481920841</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.08916413403372049</v>
+        <v>-0.07320515416285281</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.29893430048512</v>
+        <v>-2.285481159055363</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.08764205754342272</v>
+        <v>-0.08684717788716588</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3704899539843204</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.01563068274391625</v>
+        <v>9.219425875631582e-05</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.343069796646391</v>
+        <v>-2.329649709618181</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07575349112023863</v>
+        <v>-0.07456195864541401</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3784970440116729</v>
       </c>
       <c r="E75" t="n">
-        <v>0.08036244738772749</v>
+        <v>0.09687705600841431</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.37370965286163</v>
+        <v>-2.359933837512007</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.08078405623191562</v>
+        <v>-0.07931077433437818</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3828634879960473</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2170801742447839</v>
+        <v>0.233774221045299</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.397733906710043</v>
+        <v>-2.384533395349254</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.09127646769450601</v>
+        <v>-0.08899413996862002</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3841485147511101</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3610352410215809</v>
+        <v>0.3778898377724687</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.336952371331456</v>
+        <v>-2.325628090763258</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.09900017952272848</v>
+        <v>-0.09529651253030796</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3821454832626574</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5446917920949452</v>
+        <v>0.5620248906587083</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.331863567512291</v>
+        <v>-2.321724523342433</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.07463436352499384</v>
+        <v>-0.07169566982552546</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3772406074005205</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6650806445876283</v>
+        <v>0.6825270725281252</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.264552213808988</v>
+        <v>-2.255328461758166</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.06280560982841916</v>
+        <v>-0.05820160389861466</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3691776561030882</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8202490235845714</v>
+        <v>0.8374672187524796</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.244190702455843</v>
+        <v>-2.236150612784239</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.04230558479259901</v>
+        <v>-0.03785111067931807</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3576208308416514</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9430508473902085</v>
+        <v>0.9610592001570096</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.204948831742695</v>
+        <v>-2.197634364886011</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.01485941337447892</v>
+        <v>-0.009888660989411345</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3430004848610241</v>
       </c>
       <c r="E82" t="n">
-        <v>1.095014523456183</v>
+        <v>1.112494005798228</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.14929938570911</v>
+        <v>-2.142231252844909</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.0191643556712363</v>
+        <v>-0.01376704410429624</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3260786846242659</v>
       </c>
       <c r="E83" t="n">
-        <v>1.163884156089574</v>
+        <v>1.181508448190777</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.092744091671215</v>
+        <v>-2.087201970345115</v>
       </c>
       <c r="G83" t="n">
-        <v>0.007691558576396036</v>
+        <v>0.01389791597168465</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3080391449111994</v>
       </c>
       <c r="E84" t="n">
-        <v>1.300156435535302</v>
+        <v>1.317747673234958</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.011405866568441</v>
+        <v>-2.006550017579229</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03657638347138496</v>
+        <v>0.04260330268684529</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2890078190663422</v>
       </c>
       <c r="E85" t="n">
-        <v>1.310039701597949</v>
+        <v>1.327767878961159</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.856109992022673</v>
+        <v>-1.853328700235335</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0522394477474481</v>
+        <v>0.05826951500115104</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2680846427798525</v>
       </c>
       <c r="E86" t="n">
-        <v>1.354200382065161</v>
+        <v>1.372658904300654</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.761656252591661</v>
+        <v>-1.760023994762872</v>
       </c>
       <c r="G86" t="n">
-        <v>0.07182654169291386</v>
+        <v>0.07754180512235666</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2450650696049962</v>
       </c>
       <c r="E87" t="n">
-        <v>1.363685421290119</v>
+        <v>1.384117763503723</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.57157770350339</v>
+        <v>-1.571061425231604</v>
       </c>
       <c r="G87" t="n">
-        <v>0.06595702438958359</v>
+        <v>0.07176830298542573</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.221917102269596</v>
       </c>
       <c r="E88" t="n">
-        <v>1.356602335244266</v>
+        <v>1.378840077390002</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.424595797956332</v>
+        <v>-1.424699683218338</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09459472828252831</v>
+        <v>0.1007743273527548</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2017564996838357</v>
       </c>
       <c r="E89" t="n">
-        <v>1.368040732198758</v>
+        <v>1.390717625679337</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.231132320747704</v>
+        <v>-1.230629421638448</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08834429835184328</v>
+        <v>0.09413668871822981</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1874429380836979</v>
       </c>
       <c r="E90" t="n">
-        <v>1.308171340900965</v>
+        <v>1.330387046779003</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.065288157060539</v>
+        <v>-1.065362922968801</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0977616547545853</v>
+        <v>0.1036091357902174</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1817603982955155</v>
       </c>
       <c r="E91" t="n">
-        <v>1.246809779476179</v>
+        <v>1.268070055747587</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8747641605609396</v>
+        <v>-0.8744469957079976</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06545176425164607</v>
+        <v>0.07123785854154741</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1851261820904052</v>
       </c>
       <c r="E92" t="n">
-        <v>1.231914836531311</v>
+        <v>1.25291067759034</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.709623583420996</v>
+        <v>-0.7083785342960471</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04787311870495999</v>
+        <v>0.05404799571782259</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1958613184165612</v>
       </c>
       <c r="E93" t="n">
-        <v>1.211808316275816</v>
+        <v>1.231634661127719</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5341456357019101</v>
+        <v>-0.5333129795867421</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02993402277949606</v>
+        <v>0.03512828587978833</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2095252379463463</v>
       </c>
       <c r="E94" t="n">
-        <v>1.179355190032838</v>
+        <v>1.198742383549899</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4022365372604273</v>
+        <v>-0.3990633147118851</v>
       </c>
       <c r="G94" t="n">
-        <v>0.009972312283160733</v>
+        <v>0.01598191728828676</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2190157980146729</v>
       </c>
       <c r="E95" t="n">
-        <v>1.147270384264245</v>
+        <v>1.164507467661609</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.266571829195521</v>
+        <v>-0.2634379571250113</v>
       </c>
       <c r="G95" t="n">
-        <v>0.004530928180824256</v>
+        <v>0.009942405919856021</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.218650035608848</v>
       </c>
       <c r="E96" t="n">
-        <v>1.115794723895595</v>
+        <v>1.13334818513634</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1584036611606164</v>
+        <v>-0.1541947340302584</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03046109090481133</v>
+        <v>-0.02495202398025893</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2082264845939826</v>
       </c>
       <c r="E97" t="n">
-        <v>1.06254250898375</v>
+        <v>1.079428586117064</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.07653735264264637</v>
+        <v>-0.07242444067868767</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06094984128440566</v>
+        <v>-0.0553384631169687</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1910771029554466</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9998209950381604</v>
+        <v>1.014574276262112</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.06572856333667454</v>
+        <v>-0.06264663389716781</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08597517129396529</v>
+        <v>-0.08085488709237415</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.172389695644238</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9465829462984072</v>
+        <v>0.9596410089287177</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.003572122255631685</v>
+        <v>-5.418951952464814e-05</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1228953638031942</v>
+        <v>-0.1173469464006093</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1561763405774608</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9243404820953072</v>
+        <v>0.9346880837987379</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04473137653884382</v>
+        <v>0.04676815728180691</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1244095701978855</v>
+        <v>-0.1193380805890547</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1457397219715964</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8617968323104244</v>
+        <v>0.8702430189153239</v>
       </c>
       <c r="F101" t="n">
-        <v>0.06988735013547141</v>
+        <v>0.07227828518072715</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1551218312927045</v>
+        <v>-0.1508546654548583</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1369398981764848</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7980710941654447</v>
+        <v>0.8039217232393193</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1137143385489678</v>
+        <v>0.1150616989168012</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1468188804278434</v>
+        <v>-0.1430239203263874</v>
       </c>
     </row>
   </sheetData>
